--- a/пример табеля.xlsx
+++ b/пример табеля.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">фев.24!$5:$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -701,7 +701,7 @@
   <dimension ref="A1:AJ99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AC106" sqref="AC106"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
